--- a/assignment/Elective IOT list.xlsx
+++ b/assignment/Elective IOT list.xlsx
@@ -8,26 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\kristu\august2025\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B876CC13-31AA-4B26-9483-916891F05E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D0C9DB-5341-468C-B126-03CABE69FBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A,B" sheetId="1" r:id="rId1"/>
     <sheet name="C,D" sheetId="2" r:id="rId2"/>
     <sheet name="Seminartopics" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="305">
   <si>
     <t>III MCA - A &amp; B - 2024 batch</t>
   </si>
@@ -930,6 +939,18 @@
   </si>
   <si>
     <t>Smart Traffic Control System in Bangalore</t>
+  </si>
+  <si>
+    <t>Assigned Topics</t>
+  </si>
+  <si>
+    <t>Topic List</t>
+  </si>
+  <si>
+    <t>IoT in Agriculture</t>
+  </si>
+  <si>
+    <t>IoT in Tesla car manufacturing</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1039,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1041,13 +1062,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1080,6 +1121,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1362,20 +1407,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.109375" customWidth="1"/>
+    <col min="5" max="5" width="38.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1383,7 +1429,7 @@
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -1391,7 +1437,7 @@
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -1399,13 +1445,13 @@
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1418,8 +1464,11 @@
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E5" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1432,8 +1481,11 @@
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -1446,8 +1498,11 @@
       <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -1460,8 +1515,11 @@
       <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -1474,8 +1532,11 @@
       <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -1488,8 +1549,11 @@
       <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E10" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -1502,8 +1566,11 @@
       <c r="D11" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E11" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -1516,8 +1583,11 @@
       <c r="D12" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E12" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -1530,8 +1600,11 @@
       <c r="D13" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E13" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>9</v>
       </c>
@@ -1544,8 +1617,11 @@
       <c r="D14" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E14" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>10</v>
       </c>
@@ -1558,8 +1634,11 @@
       <c r="D15" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>11</v>
       </c>
@@ -1572,8 +1651,11 @@
       <c r="D16" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>12</v>
       </c>
@@ -1586,8 +1668,11 @@
       <c r="D17" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -1600,8 +1685,11 @@
       <c r="D18" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>14</v>
       </c>
@@ -1614,8 +1702,11 @@
       <c r="D19" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>15</v>
       </c>
@@ -1628,8 +1719,11 @@
       <c r="D20" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>16</v>
       </c>
@@ -1642,8 +1736,11 @@
       <c r="D21" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>17</v>
       </c>
@@ -1656,8 +1753,11 @@
       <c r="D22" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>18</v>
       </c>
@@ -1670,8 +1770,11 @@
       <c r="D23" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>19</v>
       </c>
@@ -1684,8 +1787,11 @@
       <c r="D24" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -1698,8 +1804,11 @@
       <c r="D25" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>21</v>
       </c>
@@ -1712,8 +1821,11 @@
       <c r="D26" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>22</v>
       </c>
@@ -1726,8 +1838,11 @@
       <c r="D27" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>23</v>
       </c>
@@ -1740,8 +1855,11 @@
       <c r="D28" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>24</v>
       </c>
@@ -1754,8 +1872,11 @@
       <c r="D29" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>25</v>
       </c>
@@ -1768,8 +1889,11 @@
       <c r="D30" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>26</v>
       </c>
@@ -1782,8 +1906,11 @@
       <c r="D31" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>27</v>
       </c>
@@ -1796,8 +1923,11 @@
       <c r="D32" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>28</v>
       </c>
@@ -1810,8 +1940,11 @@
       <c r="D33" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>29</v>
       </c>
@@ -1824,8 +1957,11 @@
       <c r="D34" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>30</v>
       </c>
@@ -1838,8 +1974,11 @@
       <c r="D35" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>31</v>
       </c>
@@ -1852,8 +1991,11 @@
       <c r="D36" s="7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>32</v>
       </c>
@@ -1866,8 +2008,11 @@
       <c r="D37" s="7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>33</v>
       </c>
@@ -1880,8 +2025,11 @@
       <c r="D38" s="7" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>34</v>
       </c>
@@ -1894,8 +2042,11 @@
       <c r="D39" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>35</v>
       </c>
@@ -1908,8 +2059,11 @@
       <c r="D40" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>36</v>
       </c>
@@ -1922,8 +2076,11 @@
       <c r="D41" s="7" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>37</v>
       </c>
@@ -1936,8 +2093,11 @@
       <c r="D42" s="7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>38</v>
       </c>
@@ -1950,8 +2110,11 @@
       <c r="D43" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>39</v>
       </c>
@@ -1964,8 +2127,11 @@
       <c r="D44" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>40</v>
       </c>
@@ -1978,8 +2144,11 @@
       <c r="D45" s="7" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>41</v>
       </c>
@@ -1992,8 +2161,11 @@
       <c r="D46" s="7" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>42</v>
       </c>
@@ -2006,8 +2178,11 @@
       <c r="D47" s="7" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>43</v>
       </c>
@@ -2020,8 +2195,11 @@
       <c r="D48" s="7" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>44</v>
       </c>
@@ -2034,8 +2212,11 @@
       <c r="D49" s="7" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>45</v>
       </c>
@@ -2048,8 +2229,11 @@
       <c r="D50" s="7" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>46</v>
       </c>
@@ -2062,8 +2246,11 @@
       <c r="D51" s="7" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>47</v>
       </c>
@@ -2076,8 +2263,11 @@
       <c r="D52" s="7" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>48</v>
       </c>
@@ -2090,8 +2280,11 @@
       <c r="D53" s="7" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>49</v>
       </c>
@@ -2104,8 +2297,11 @@
       <c r="D54" s="7" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>50</v>
       </c>
@@ -2118,8 +2314,11 @@
       <c r="D55" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>51</v>
       </c>
@@ -2132,8 +2331,11 @@
       <c r="D56" s="7" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>52</v>
       </c>
@@ -2146,8 +2348,11 @@
       <c r="D57" s="7" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>53</v>
       </c>
@@ -2160,8 +2365,11 @@
       <c r="D58" s="7" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>54</v>
       </c>
@@ -2174,8 +2382,11 @@
       <c r="D59" s="7" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>55</v>
       </c>
@@ -2188,8 +2399,11 @@
       <c r="D60" s="7" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>56</v>
       </c>
@@ -2202,8 +2416,11 @@
       <c r="D61" s="7" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E61" s="19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>57</v>
       </c>
@@ -2216,8 +2433,11 @@
       <c r="D62" s="7" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E62" s="19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>58</v>
       </c>
@@ -2230,8 +2450,11 @@
       <c r="D63" s="7" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E63" s="19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>59</v>
       </c>
@@ -2244,8 +2467,11 @@
       <c r="D64" s="7" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E64" s="19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>60</v>
       </c>
@@ -2258,8 +2484,11 @@
       <c r="D65" s="7" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E65" s="19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>61</v>
       </c>
@@ -2271,6 +2500,9 @@
       </c>
       <c r="D66" s="7" t="s">
         <v>189</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -2288,19 +2520,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>286</v>
       </c>
@@ -2310,8 +2543,11 @@
       <c r="C1" s="8" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2321,8 +2557,11 @@
       <c r="C2" s="9" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2332,8 +2571,11 @@
       <c r="C3" s="8" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2343,8 +2585,11 @@
       <c r="C4" s="8" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2354,8 +2599,11 @@
       <c r="C5" s="8" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2365,8 +2613,11 @@
       <c r="C6" s="8" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D6" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2376,8 +2627,11 @@
       <c r="C7" s="8" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D7" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2387,8 +2641,11 @@
       <c r="C8" s="8" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D8" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2398,8 +2655,11 @@
       <c r="C9" s="8" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D9" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2409,8 +2669,11 @@
       <c r="C10" s="8" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2420,8 +2683,11 @@
       <c r="C11" s="8" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2431,8 +2697,11 @@
       <c r="C12" s="8" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2442,8 +2711,11 @@
       <c r="C13" s="8" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2453,8 +2725,11 @@
       <c r="C14" s="8" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2464,8 +2739,11 @@
       <c r="C15" s="8" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2475,8 +2753,11 @@
       <c r="C16" s="8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2486,8 +2767,11 @@
       <c r="C17" s="8" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2497,8 +2781,11 @@
       <c r="C18" s="8" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2508,8 +2795,11 @@
       <c r="C19" s="8" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2519,8 +2809,11 @@
       <c r="C20" s="8" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2530,8 +2823,11 @@
       <c r="C21" s="8" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2541,8 +2837,11 @@
       <c r="C22" s="8" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2552,8 +2851,11 @@
       <c r="C23" s="8" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2563,8 +2865,11 @@
       <c r="C24" s="8" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2574,8 +2879,11 @@
       <c r="C25" s="8" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2585,8 +2893,11 @@
       <c r="C26" s="8" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2596,8 +2907,11 @@
       <c r="C27" s="8" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2607,8 +2921,11 @@
       <c r="C28" s="8" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2618,8 +2935,11 @@
       <c r="C29" s="8" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2629,8 +2949,11 @@
       <c r="C30" s="8" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2640,8 +2963,11 @@
       <c r="C31" s="8" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2651,8 +2977,11 @@
       <c r="C32" s="8" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2662,8 +2991,11 @@
       <c r="C33" s="8" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2673,8 +3005,11 @@
       <c r="C34" s="8" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2684,8 +3019,11 @@
       <c r="C35" s="8" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2695,8 +3033,15 @@
       <c r="C36" s="8" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>288</v>
+      </c>
+      <c r="M36">
+        <f>108</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2706,8 +3051,11 @@
       <c r="C37" s="8" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2717,8 +3065,11 @@
       <c r="C38" s="8" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2728,8 +3079,11 @@
       <c r="C39" s="8" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2739,8 +3093,11 @@
       <c r="C40" s="8" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2750,8 +3107,11 @@
       <c r="C41" s="8" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2761,8 +3121,11 @@
       <c r="C42" s="8" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2772,8 +3135,11 @@
       <c r="C43" s="8" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2783,8 +3149,11 @@
       <c r="C44" s="8" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2794,8 +3163,11 @@
       <c r="C45" s="8" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2805,8 +3177,11 @@
       <c r="C46" s="8" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2816,8 +3191,11 @@
       <c r="C47" s="8" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2826,6 +3204,9 @@
       </c>
       <c r="C48" s="8" t="s">
         <v>285</v>
+      </c>
+      <c r="D48" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -2835,18 +3216,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADDEFC5D-F571-4C82-9892-1B9A055F79FA}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A13" zoomScale="227" zoomScaleNormal="227" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>286</v>
       </c>
@@ -2854,7 +3235,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2862,7 +3243,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2870,7 +3251,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2878,15 +3259,19 @@
         <v>294</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <f>108/13</f>
+        <v>8.3076923076923084</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2894,7 +3279,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2902,7 +3287,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2910,7 +3295,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2918,7 +3303,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2926,7 +3311,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2934,7 +3319,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2942,7 +3327,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2950,12 +3335,28 @@
         <v>290</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
